--- a/resources/Nuuchahnulth data progress.xlsx
+++ b/resources/Nuuchahnulth data progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwhie\OneDrive\Dissertation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="8_{F2A7D79F-8BBB-41F1-8705-2F7625968273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA74C84F-55DB-4C5E-8ABA-94C60B107343}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3B152-C5C7-4356-9DA1-36E6564494A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
   </bookViews>
@@ -315,7 +315,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13975903614457832</c:v>
+                  <c:v>0.17309236947791165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,6 +994,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.8602409638554217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82690763052208838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2704,7 +2707,7 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2775,7 +2778,7 @@
       </c>
       <c r="D6" s="4">
         <f>MAX(O11:O70)</f>
-        <v>0.13975903614457832</v>
+        <v>0.17309236947791165</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
@@ -2903,7 +2906,7 @@
         <v>154</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:O17" si="0">SUM(($J11-$D$1), ($K11-$D$1), ($L11-$D$1), ($M11-$D$1), ($N11-$D$1))/($D$3*5)</f>
+        <f t="shared" ref="O11:O18" si="0">SUM(($J11-$D$1), ($K11-$D$1), ($L11-$D$1), ($M11-$D$1), ($N11-$D$1))/($D$3*5)</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
@@ -3166,7 +3169,7 @@
         <v>0.12409638554216867</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16:P18" si="6">1-O16</f>
+        <f t="shared" ref="P16:P19" si="6">1-O16</f>
         <v>0.87590361445783138</v>
       </c>
     </row>
@@ -3250,8 +3253,29 @@
         <f t="shared" si="2"/>
         <v>0.82128514056224899</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="4"/>
+      <c r="J18" s="1">
+        <v>469</v>
+      </c>
+      <c r="K18" s="1">
+        <v>183</v>
+      </c>
+      <c r="L18" s="1">
+        <v>183</v>
+      </c>
+      <c r="M18" s="1">
+        <v>183</v>
+      </c>
+      <c r="N18" s="1">
+        <v>183</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17309236947791165</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="6"/>
+        <v>0.82690763052208838</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B19" s="3">

--- a/resources/Nuuchahnulth data progress.xlsx
+++ b/resources/Nuuchahnulth data progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwhie\OneDrive\Dissertation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A3B152-C5C7-4356-9DA1-36E6564494A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{F86613F6-CFA3-490A-9781-CEEC566AE84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D55BBBD-C126-4BFC-932B-F68891A10520}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
   </bookViews>
@@ -132,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +146,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -315,7 +318,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.17309236947791165</c:v>
+                  <c:v>0.24899598393574296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,6 +1000,12 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.82690763052208838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.76265060240963856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75100401606425704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2707,7 +2716,7 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2778,42 +2787,42 @@
       </c>
       <c r="D6" s="4">
         <f>MAX(O11:O70)</f>
-        <v>0.17309236947791165</v>
+        <v>0.24899598393574296</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="J9" s="9" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
@@ -2906,7 +2915,7 @@
         <v>154</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:O18" si="0">SUM(($J11-$D$1), ($K11-$D$1), ($L11-$D$1), ($M11-$D$1), ($N11-$D$1))/($D$3*5)</f>
+        <f t="shared" ref="O11:O20" si="0">SUM(($J11-$D$1), ($K11-$D$1), ($L11-$D$1), ($M11-$D$1), ($N11-$D$1))/($D$3*5)</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
@@ -3169,7 +3178,7 @@
         <v>0.12409638554216867</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16:P19" si="6">1-O16</f>
+        <f t="shared" ref="P16:P20" si="6">1-O16</f>
         <v>0.87590361445783138</v>
       </c>
     </row>
@@ -3305,8 +3314,29 @@
         <f t="shared" si="2"/>
         <v>0.8012048192771084</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="4"/>
+      <c r="J19" s="8">
+        <v>629</v>
+      </c>
+      <c r="K19" s="1">
+        <v>183</v>
+      </c>
+      <c r="L19" s="1">
+        <v>183</v>
+      </c>
+      <c r="M19" s="1">
+        <v>183</v>
+      </c>
+      <c r="N19" s="1">
+        <v>183</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23734939759036144</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="6"/>
+        <v>0.76265060240963856</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
@@ -3336,8 +3366,29 @@
         <f t="shared" si="2"/>
         <v>0.78112449799196781</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="4"/>
+      <c r="J20" s="1">
+        <v>652</v>
+      </c>
+      <c r="K20" s="1">
+        <v>189</v>
+      </c>
+      <c r="L20" s="1">
+        <v>183</v>
+      </c>
+      <c r="M20" s="1">
+        <v>183</v>
+      </c>
+      <c r="N20" s="1">
+        <v>183</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24899598393574296</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="6"/>
+        <v>0.75100401606425704</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
@@ -3432,7 +3483,7 @@
       <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="3">
@@ -3470,7 +3521,7 @@
       <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="3">
         <v>43821</v>
       </c>
@@ -3506,7 +3557,7 @@
       <c r="P25" s="4"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="3">
         <v>43822</v>
       </c>
@@ -3542,7 +3593,7 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="3">
         <v>43823</v>
       </c>
@@ -3578,7 +3629,7 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="8"/>
+      <c r="A28" s="9"/>
       <c r="B28" s="3">
         <v>43824</v>
       </c>
@@ -3614,7 +3665,7 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="3">
         <v>43825</v>
       </c>
@@ -3650,7 +3701,7 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="3">
         <v>43826</v>
       </c>
@@ -3841,7 +3892,7 @@
       <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3">
@@ -3879,7 +3930,7 @@
       <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="3">
         <v>43833</v>
       </c>
@@ -3915,7 +3966,7 @@
       <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="3">
         <v>43834</v>
       </c>
@@ -3951,7 +4002,7 @@
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="8"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="3">
         <v>43835</v>
       </c>

--- a/resources/Nuuchahnulth data progress.xlsx
+++ b/resources/Nuuchahnulth data progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwhie\OneDrive\Dissertation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{F86613F6-CFA3-490A-9781-CEEC566AE84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D55BBBD-C126-4BFC-932B-F68891A10520}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="14_{F86613F6-CFA3-490A-9781-CEEC566AE84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39480BED-C625-4A15-AB0F-F7E4A3D361E1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -146,6 +146,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -318,7 +321,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.24899598393574296</c:v>
+                  <c:v>0.29919678714859438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,6 +1009,24 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.75100401606425704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75100401606425704</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.75100401606425704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.75100401606425704</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75100401606425704</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72771084337349401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.70080321285140568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2700,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99EB4AA-F4ED-40DA-BCD9-5BEAE4C66053}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -2715,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5577CC-B33A-4D0B-9856-A1D47D3C4C1F}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2787,42 +2808,42 @@
       </c>
       <c r="D6" s="4">
         <f>MAX(O11:O70)</f>
-        <v>0.24899598393574296</v>
+        <v>0.29919678714859438</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="10" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
@@ -2915,7 +2936,7 @@
         <v>154</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:O20" si="0">SUM(($J11-$D$1), ($K11-$D$1), ($L11-$D$1), ($M11-$D$1), ($N11-$D$1))/($D$3*5)</f>
+        <f t="shared" ref="O11:O26" si="0">SUM(($J11-$D$1), ($K11-$D$1), ($L11-$D$1), ($M11-$D$1), ($N11-$D$1))/($D$3*5)</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
@@ -3178,7 +3199,7 @@
         <v>0.12409638554216867</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16:P20" si="6">1-O16</f>
+        <f t="shared" ref="P16:P27" si="6">1-O16</f>
         <v>0.87590361445783138</v>
       </c>
     </row>
@@ -3418,8 +3439,29 @@
         <f t="shared" si="2"/>
         <v>0.76104417670682734</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="4"/>
+      <c r="J21" s="1">
+        <v>652</v>
+      </c>
+      <c r="K21" s="1">
+        <v>189</v>
+      </c>
+      <c r="L21" s="1">
+        <v>183</v>
+      </c>
+      <c r="M21" s="1">
+        <v>183</v>
+      </c>
+      <c r="N21" s="1">
+        <v>183</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24899598393574296</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="6"/>
+        <v>0.75100401606425704</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
@@ -3448,8 +3490,29 @@
         <f t="shared" si="2"/>
         <v>0.74096385542168675</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="4"/>
+      <c r="J22" s="1">
+        <v>652</v>
+      </c>
+      <c r="K22" s="1">
+        <v>189</v>
+      </c>
+      <c r="L22" s="1">
+        <v>183</v>
+      </c>
+      <c r="M22" s="1">
+        <v>183</v>
+      </c>
+      <c r="N22" s="1">
+        <v>183</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24899598393574296</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="6"/>
+        <v>0.75100401606425704</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
@@ -3479,11 +3542,32 @@
         <f t="shared" si="2"/>
         <v>0.72088353413654627</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="4"/>
+      <c r="J23" s="1">
+        <v>652</v>
+      </c>
+      <c r="K23" s="1">
+        <v>189</v>
+      </c>
+      <c r="L23" s="1">
+        <v>183</v>
+      </c>
+      <c r="M23" s="1">
+        <v>183</v>
+      </c>
+      <c r="N23" s="1">
+        <v>183</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24899598393574296</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="6"/>
+        <v>0.75100401606425704</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="3">
@@ -3517,11 +3601,32 @@
         <f t="shared" si="2"/>
         <v>0.72088353413654627</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="4"/>
+      <c r="J24" s="1">
+        <v>652</v>
+      </c>
+      <c r="K24" s="1">
+        <v>189</v>
+      </c>
+      <c r="L24" s="1">
+        <v>183</v>
+      </c>
+      <c r="M24" s="1">
+        <v>183</v>
+      </c>
+      <c r="N24" s="1">
+        <v>183</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24899598393574296</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="6"/>
+        <v>0.75100401606425704</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3">
         <v>43821</v>
       </c>
@@ -3553,11 +3658,32 @@
         <f t="shared" si="2"/>
         <v>0.72088353413654627</v>
       </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="4"/>
+      <c r="J25" s="1">
+        <v>652</v>
+      </c>
+      <c r="K25" s="9">
+        <v>247</v>
+      </c>
+      <c r="L25" s="1">
+        <v>183</v>
+      </c>
+      <c r="M25" s="1">
+        <v>183</v>
+      </c>
+      <c r="N25" s="1">
+        <v>183</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.27228915662650605</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="6"/>
+        <v>0.72771084337349401</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="3">
         <v>43822</v>
       </c>
@@ -3589,11 +3715,32 @@
         <f t="shared" si="2"/>
         <v>0.72088353413654627</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="4"/>
+      <c r="J26" s="1">
+        <v>652</v>
+      </c>
+      <c r="K26" s="1">
+        <v>314</v>
+      </c>
+      <c r="L26" s="1">
+        <v>183</v>
+      </c>
+      <c r="M26" s="1">
+        <v>183</v>
+      </c>
+      <c r="N26" s="1">
+        <v>183</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.29919678714859438</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="6"/>
+        <v>0.70080321285140568</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="3">
         <v>43823</v>
       </c>
@@ -3629,7 +3776,7 @@
       <c r="P27" s="4"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A28" s="9"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3">
         <v>43824</v>
       </c>
@@ -3665,7 +3812,7 @@
       <c r="P28" s="4"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3">
         <v>43825</v>
       </c>
@@ -3701,7 +3848,7 @@
       <c r="P29" s="4"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3">
         <v>43826</v>
       </c>
@@ -3892,7 +4039,7 @@
       <c r="P35" s="4"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="3">
@@ -3930,7 +4077,7 @@
       <c r="P36" s="4"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="3">
         <v>43833</v>
       </c>
@@ -3966,7 +4113,7 @@
       <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3">
         <v>43834</v>
       </c>
@@ -4002,7 +4149,7 @@
       <c r="P38" s="4"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="3">
         <v>43835</v>
       </c>

--- a/resources/Nuuchahnulth data progress.xlsx
+++ b/resources/Nuuchahnulth data progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwhie\OneDrive\Dissertation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="14_{F86613F6-CFA3-490A-9781-CEEC566AE84D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39480BED-C625-4A15-AB0F-F7E4A3D361E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11125B-E4E3-43B8-BBB3-2F169625142E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs" sheetId="4" r:id="rId1"/>
@@ -321,7 +321,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.29919678714859438</c:v>
+                  <c:v>0.34056224899598392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1026,7 +1026,7 @@
                   <c:v>0.72771084337349401</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.70080321285140568</c:v>
+                  <c:v>0.65943775100401614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99EB4AA-F4ED-40DA-BCD9-5BEAE4C66053}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -2736,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5577CC-B33A-4D0B-9856-A1D47D3C4C1F}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="D6" s="4">
         <f>MAX(O11:O70)</f>
-        <v>0.29919678714859438</v>
+        <v>0.34056224899598392</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
@@ -3719,7 +3719,7 @@
         <v>652</v>
       </c>
       <c r="K26" s="1">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="L26" s="1">
         <v>183</v>
@@ -3732,11 +3732,11 @@
       </c>
       <c r="O26" s="2">
         <f t="shared" si="0"/>
-        <v>0.29919678714859438</v>
+        <v>0.34056224899598392</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="6"/>
-        <v>0.70080321285140568</v>
+        <v>0.65943775100401614</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">

--- a/resources/Nuuchahnulth data progress.xlsx
+++ b/resources/Nuuchahnulth data progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwhie\OneDrive\Dissertation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11125B-E4E3-43B8-BBB3-2F169625142E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="114_{6660E208-4B16-481A-ABD5-F0BCABA587CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5DDD0400-91E2-4363-9C09-50DD165DDB04}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
   </bookViews>
@@ -321,7 +321,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.34056224899598392</c:v>
+                  <c:v>0.40722891566265063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,6 +1027,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.65943775100401614</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.59277108433734937</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,7 +2740,7 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="D6" s="4">
         <f>MAX(O11:O70)</f>
-        <v>0.34056224899598392</v>
+        <v>0.40722891566265063</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
@@ -2936,7 +2939,7 @@
         <v>154</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:O26" si="0">SUM(($J11-$D$1), ($K11-$D$1), ($L11-$D$1), ($M11-$D$1), ($N11-$D$1))/($D$3*5)</f>
+        <f t="shared" ref="O11:O27" si="0">SUM(($J11-$D$1), ($K11-$D$1), ($L11-$D$1), ($M11-$D$1), ($N11-$D$1))/($D$3*5)</f>
         <v>0</v>
       </c>
       <c r="P11" s="4">
@@ -3199,7 +3202,7 @@
         <v>0.12409638554216867</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" ref="P16:P27" si="6">1-O16</f>
+        <f t="shared" ref="P16:P28" si="6">1-O16</f>
         <v>0.87590361445783138</v>
       </c>
     </row>
@@ -3772,8 +3775,29 @@
         <f t="shared" si="2"/>
         <v>0.72088353413654627</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="4"/>
+      <c r="J27" s="1">
+        <v>652</v>
+      </c>
+      <c r="K27" s="1">
+        <v>583</v>
+      </c>
+      <c r="L27" s="1">
+        <v>183</v>
+      </c>
+      <c r="M27" s="1">
+        <v>183</v>
+      </c>
+      <c r="N27" s="1">
+        <v>183</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.40722891566265063</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="6"/>
+        <v>0.59277108433734937</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" s="10"/>

--- a/resources/Nuuchahnulth data progress.xlsx
+++ b/resources/Nuuchahnulth data progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwhie\OneDrive\Dissertation\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="114_{6660E208-4B16-481A-ABD5-F0BCABA587CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B42D94C9-F6DB-41C1-806A-07C1F86CC63E}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="114_{6660E208-4B16-481A-ABD5-F0BCABA587CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF283B51-6E25-48D5-B69D-E5F4FE450D2F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
   </bookViews>
   <sheets>
     <sheet name="graphs" sheetId="4" r:id="rId1"/>
@@ -628,7 +628,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.314859437751004</c:v>
+                  <c:v>0.31780455153949128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,7 +1352,7 @@
                   <c:v>0.685140562248996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.685140562248996</c:v>
+                  <c:v>0.68219544846050872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3016,7 +3016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99EB4AA-F4ED-40DA-BCD9-5BEAE4C66053}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -3031,8 +3031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84877C8-368F-4B94-AA14-70D81601CFC3}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3119,7 +3119,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="1">
@@ -3147,7 +3147,7 @@
       </c>
       <c r="B5" s="3">
         <f>IF(Current_Book="GL",Current_Page-GL_Start_Pages,GL_Pages-GL_Start_Pages+Current_Page-CL_Start_Pages)</f>
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="1">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B6" s="3">
         <f>Total_Line_Pages-Line_Pages_Completed</f>
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="1">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B7" s="11">
         <f>(Total_Line_Pages*Current_Line)-Line_Pages_Remaining</f>
-        <v>1176</v>
+        <v>1187</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="1">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B8" s="3">
         <f>(Total_Pages)-Total_Pages_Completed</f>
-        <v>2559</v>
+        <v>2548</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="1">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="B9" s="4">
         <f>Line_Pages_Completed/Total_Line_Pages</f>
-        <v>0.57429718875502012</v>
+        <v>0.58902275769745649</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="1">
@@ -3287,7 +3287,7 @@
       </c>
       <c r="B10" s="4">
         <f>Total_Pages_Completed/(Total_Pages)</f>
-        <v>0.314859437751004</v>
+        <v>0.31780455153949128</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="1">
@@ -3615,7 +3615,7 @@
         <v>1507.1052631578948</v>
       </c>
       <c r="G25" s="13">
-        <v>1176</v>
+        <v>1187</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
-        <v>0.685140562248996</v>
+        <v>0.68219544846050872</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.45">
@@ -3769,7 +3769,7 @@
         <v>43839</v>
       </c>
       <c r="F35" s="18">
-        <f t="shared" ref="F35:F66" si="3">(Total_Pages)/COUNT($E$3:$E$59)*(E35-$E$3+1)</f>
+        <f t="shared" ref="F35:F59" si="3">(Total_Pages)/COUNT($E$3:$E$59)*(E35-$E$3+1)</f>
         <v>2162.3684210526317</v>
       </c>
       <c r="G35" s="13"/>

--- a/resources/Nuuchahnulth data progress.xlsx
+++ b/resources/Nuuchahnulth data progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dwhie\OneDrive\Dissertation\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="114_{6660E208-4B16-481A-ABD5-F0BCABA587CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AF283B51-6E25-48D5-B69D-E5F4FE450D2F}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="114_{6660E208-4B16-481A-ABD5-F0BCABA587CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4801C7A5-6E66-412F-A6BF-8AE48DC64B23}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
   </bookViews>
   <sheets>
     <sheet name="graphs" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -470,10 +472,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Calcul" xfId="3" builtinId="22"/>
+    <cellStyle name="Entrée" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Sortie" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,7 +493,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -780,7 +782,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2718,7 +2720,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3016,11 +3018,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99EB4AA-F4ED-40DA-BCD9-5BEAE4C66053}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3031,17 +3033,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84877C8-368F-4B94-AA14-70D81601CFC3}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.9296875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.59765625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.53125" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.53125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.265625" style="6" hidden="1" customWidth="1"/>
@@ -4192,7 +4194,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.73046875" bestFit="1" customWidth="1"/>

--- a/resources/Nuuchahnulth data progress.xlsx
+++ b/resources/Nuuchahnulth data progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7cf2c9d3dc7fdc6/Dissertation/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="114_{6660E208-4B16-481A-ABD5-F0BCABA587CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4801C7A5-6E66-412F-A6BF-8AE48DC64B23}"/>
+  <xr:revisionPtr revIDLastSave="609" documentId="114_{6660E208-4B16-481A-ABD5-F0BCABA587CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79946DEC-6F31-4BAD-9531-4960533397F1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6896C122-56FA-4CA3-9120-A32E86371320}"/>
   </bookViews>
   <sheets>
     <sheet name="graphs" sheetId="4" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Total Pages</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Christmas</t>
   </si>
   <si>
-    <t>LSA / SSILA</t>
-  </si>
-  <si>
     <t>Book</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -134,6 +128,9 @@
   </si>
   <si>
     <t>Actual Percent Remaining</t>
+  </si>
+  <si>
+    <t>Burndown Log</t>
   </si>
 </sst>
 </file>
@@ -210,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -390,6 +387,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -398,7 +432,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -448,6 +482,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -472,10 +515,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
-    <cellStyle name="Calcul" xfId="3" builtinId="22"/>
-    <cellStyle name="Entrée" xfId="1" builtinId="20"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Sortie" xfId="2" builtinId="21"/>
+    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,7 +536,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -630,7 +673,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.31780455153949128</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -675,6 +718,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -779,805 +823,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>Percentage Remaining</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Target Percent Remaining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$E$3:$E$59</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="57"/>
-                <c:pt idx="0">
-                  <c:v>43807</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43808</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43809</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43810</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43811</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43812</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43813</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43814</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43815</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43816</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43817</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43818</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43819</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43820</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43821</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43822</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43823</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43824</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43825</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43826</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43827</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43828</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43829</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43830</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43831</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43832</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43833</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43834</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43835</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43836</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43837</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43838</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43839</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43840</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43841</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43842</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43843</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43844</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43845</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43846</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>43847</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43848</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43849</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43850</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43851</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>43852</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>43853</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>43854</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43855</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>43856</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>43857</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>43858</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>43859</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>43860</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>43861</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>43862</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>43863</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$H$3:$H$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
-                <c:pt idx="0">
-                  <c:v>0.98245614035087714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96491228070175439</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94736842105263164</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92982456140350878</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91228070175438591</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89473684210526316</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87719298245614041</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.85964912280701755</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84210526315789469</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82456140350877194</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.80701754385964919</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.78947368421052633</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.77192982456140347</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.75438596491228072</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.73684210526315785</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.7192982456140351</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70175438596491224</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.68421052631578949</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.64912280701754388</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.63157894736842102</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.61403508771929827</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.59649122807017541</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.57894736842105265</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.56140350877192979</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.54385964912280693</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.52631578947368418</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.50877192982456143</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.49122807017543857</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.47368421052631571</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.45614035087719296</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.43859649122807021</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.42105263157894735</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.40350877192982448</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.38596491228070173</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36842105263157898</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.35087719298245612</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.33333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.31578947368421051</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.29824561403508765</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.2807017543859649</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.26315789473684215</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.24561403508771928</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.22807017543859653</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.21052631578947367</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.19298245614035081</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.17543859649122806</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.15789473684210531</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.14035087719298245</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.1228070175438597</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.10526315789473684</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>8.7719298245613975E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.0175438596491224E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.2631578947368363E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.5087719298245612E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.7543859649122862E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4205-4C69-BACD-F0FFBEE24407}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual Percent Remaining</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$I$3:$I$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="57"/>
-                <c:pt idx="0">
-                  <c:v>0.99223560910307895</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96974564926372153</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.96974564926372153</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.948326639892905</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.948326639892905</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93788487282463184</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9156626506024097</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87282463186077641</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86506024096385548</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79062918340026778</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79062918340026778</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.79062918340026778</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.79062918340026778</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.79062918340026778</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.77510040160642568</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.7295850066934404</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.685140562248996</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.685140562248996</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.685140562248996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.685140562248996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.685140562248996</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.685140562248996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.68219544846050872</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4205-4C69-BACD-F0FFBEE24407}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1277143120"/>
-        <c:axId val="653915936"/>
-      </c:lineChart>
-      <c:dateAx>
-        <c:axId val="1277143120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="653915936"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
-      <c:valAx>
-        <c:axId val="653915936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1277143120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2090,522 +1336,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2678,49 +1408,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104767</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152392</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1753361B-E568-4BAB-8FCB-2640615997E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3019,10 +1711,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3031,13 +1723,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84877C8-368F-4B94-AA14-70D81601CFC3}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.9296875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.6640625" style="6" bestFit="1" customWidth="1"/>
@@ -3051,373 +1743,374 @@
     <col min="10" max="16384" width="9.06640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="D1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="D1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9">
-        <v>2</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="1">
         <v>43807</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F34" si="0">(Total_Pages)/COUNT($E$3:$E$59)*(E3-$E$3+1)</f>
-        <v>65.526315789473685</v>
+        <f t="shared" ref="F3:F25" si="0">(Total_Pages)/COUNT($E$3:$E$25)*(E3-$E$3+1)</f>
+        <v>162.39130434782609</v>
       </c>
       <c r="G3" s="13">
         <v>29</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H34" si="1">1-(F3/Total_Pages)</f>
-        <v>0.98245614035087714</v>
+        <f t="shared" ref="H3:H25" si="1">1-(F3/Total_Pages)</f>
+        <v>0.95652173913043481</v>
       </c>
       <c r="I3" s="6">
         <f>IF(ISBLANK(G3),,1-(G3/Total_Pages))</f>
         <v>0.99223560910307895</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>594</v>
-      </c>
-      <c r="D4" s="25"/>
+        <v>347</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="1">
         <v>43808</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="0"/>
-        <v>131.05263157894737</v>
+        <v>324.78260869565219</v>
       </c>
       <c r="G4" s="13">
         <v>113</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" si="1"/>
-        <v>0.96491228070175439</v>
+        <v>0.91304347826086962</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I25" si="2">IF(ISBLANK(G4), "",1-(G4/Total_Pages))</f>
         <v>0.96974564926372153</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <f>IF(Current_Book="GL",Current_Page-GL_Start_Pages,GL_Pages-GL_Start_Pages+Current_Page-CL_Start_Pages)</f>
-        <v>440</v>
-      </c>
-      <c r="D5" s="25"/>
+        <v>747</v>
+      </c>
+      <c r="D5" s="28"/>
       <c r="E5" s="1">
         <v>43809</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="0"/>
-        <v>196.57894736842104</v>
+        <v>487.17391304347825</v>
       </c>
       <c r="G5" s="13">
         <v>113</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="1"/>
-        <v>0.94736842105263164</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="2"/>
         <v>0.96974564926372153</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <f>Total_Line_Pages-Line_Pages_Completed</f>
-        <v>307</v>
-      </c>
-      <c r="D6" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="28"/>
       <c r="E6" s="1">
         <v>43810</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" si="0"/>
-        <v>262.10526315789474</v>
+        <v>649.56521739130437</v>
       </c>
       <c r="G6" s="13">
         <v>193</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" si="1"/>
-        <v>0.92982456140350878</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="2"/>
         <v>0.948326639892905</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="11">
         <f>(Total_Line_Pages*Current_Line)-Line_Pages_Remaining</f>
-        <v>1187</v>
-      </c>
-      <c r="D7" s="25"/>
+        <v>3735</v>
+      </c>
+      <c r="D7" s="28"/>
       <c r="E7" s="1">
         <v>43811</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" si="0"/>
-        <v>327.63157894736844</v>
+        <v>811.95652173913049</v>
       </c>
       <c r="G7" s="13">
         <v>193</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" si="1"/>
-        <v>0.91228070175438591</v>
+        <v>0.78260869565217384</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
         <v>0.948326639892905</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3">
         <f>(Total_Pages)-Total_Pages_Completed</f>
-        <v>2548</v>
-      </c>
-      <c r="D8" s="25"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="1">
         <v>43812</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" si="0"/>
-        <v>393.15789473684208</v>
+        <v>974.3478260869565</v>
       </c>
       <c r="G8" s="13">
         <v>232</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>0.89473684210526316</v>
+        <v>0.73913043478260865</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
         <v>0.93788487282463184</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="4">
         <f>Line_Pages_Completed/Total_Line_Pages</f>
-        <v>0.58902275769745649</v>
-      </c>
-      <c r="D9" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D9" s="28"/>
       <c r="E9" s="1">
         <v>43813</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" si="0"/>
-        <v>458.68421052631578</v>
+        <v>1136.7391304347827</v>
       </c>
       <c r="G9" s="13">
         <v>315</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>0.87719298245614041</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
         <v>0.9156626506024097</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4">
         <f>Total_Pages_Completed/(Total_Pages)</f>
-        <v>0.31780455153949128</v>
-      </c>
-      <c r="D10" s="25"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="28"/>
       <c r="E10" s="1">
         <v>43814</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" si="0"/>
-        <v>524.21052631578948</v>
+        <v>1299.1304347826087</v>
       </c>
       <c r="G10" s="13">
         <v>475</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>0.85964912280701755</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
         <v>0.87282463186077641</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D11" s="25"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D11" s="28"/>
       <c r="E11" s="1">
         <v>43815</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" si="0"/>
-        <v>589.73684210526312</v>
+        <v>1461.5217391304348</v>
       </c>
       <c r="G11" s="13">
         <v>504</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>0.84210526315789469</v>
+        <v>0.60869565217391308</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
         <v>0.86506024096385548</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D12" s="25"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D12" s="28"/>
       <c r="E12" s="1">
         <v>43816</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" si="0"/>
-        <v>655.26315789473688</v>
+        <v>1623.913043478261</v>
       </c>
       <c r="G12" s="13">
         <v>782</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>0.82456140350877194</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
         <v>0.79062918340026778</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D13" s="25"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D13" s="28"/>
       <c r="E13" s="1">
         <v>43817</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="0"/>
-        <v>720.78947368421052</v>
+        <v>1786.304347826087</v>
       </c>
       <c r="G13" s="13">
         <v>782</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>0.80701754385964919</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
         <v>0.79062918340026778</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D14" s="25"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D14" s="28"/>
       <c r="E14" s="1">
         <v>43818</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" si="0"/>
-        <v>786.31578947368416</v>
+        <v>1948.695652173913</v>
       </c>
       <c r="G14" s="13">
         <v>782</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>0.78947368421052633</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
         <v>0.79062918340026778</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D15" s="25"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D15" s="28"/>
       <c r="E15" s="1">
         <v>43819</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" si="0"/>
-        <v>851.84210526315792</v>
+        <v>2111.086956521739</v>
       </c>
       <c r="G15" s="13">
         <v>782</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>0.77192982456140347</v>
+        <v>0.43478260869565222</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
         <v>0.79062918340026778</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D16" s="24" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="D16" s="27" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="1">
@@ -3425,14 +2118,14 @@
       </c>
       <c r="F16" s="18">
         <f t="shared" si="0"/>
-        <v>917.36842105263156</v>
+        <v>2273.4782608695655</v>
       </c>
       <c r="G16" s="13">
         <v>782</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>0.75438596491228072</v>
+        <v>0.39130434782608692</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
@@ -3440,20 +2133,20 @@
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D17" s="24"/>
+      <c r="D17" s="27"/>
       <c r="E17" s="1">
         <v>43821</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" si="0"/>
-        <v>982.89473684210532</v>
+        <v>2435.8695652173915</v>
       </c>
       <c r="G17" s="13">
         <v>840</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>0.73684210526315785</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
@@ -3461,20 +2154,20 @@
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D18" s="24"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="1">
         <v>43822</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="0"/>
-        <v>1048.421052631579</v>
+        <v>2598.2608695652175</v>
       </c>
       <c r="G18" s="13">
         <v>1010</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>0.7192982456140351</v>
+        <v>0.30434782608695654</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
@@ -3482,20 +2175,20 @@
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D19" s="24"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="1">
         <v>43823</v>
       </c>
       <c r="F19" s="18">
         <f t="shared" si="0"/>
-        <v>1113.9473684210527</v>
+        <v>2760.6521739130435</v>
       </c>
       <c r="G19" s="13">
         <v>1176</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>0.70175438596491224</v>
+        <v>0.26086956521739135</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
@@ -3503,20 +2196,20 @@
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D20" s="24"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="1">
         <v>43824</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" si="0"/>
-        <v>1179.4736842105262</v>
+        <v>2923.0434782608695</v>
       </c>
       <c r="G20" s="13">
         <v>1176</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>0.68421052631578949</v>
+        <v>0.21739130434782605</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
@@ -3524,20 +2217,20 @@
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D21" s="24"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="1">
         <v>43825</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="0"/>
-        <v>1245</v>
+        <v>3085.434782608696</v>
       </c>
       <c r="G21" s="13">
         <v>1176</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
+        <v>0.17391304347826075</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
@@ -3545,20 +2238,20 @@
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D22" s="24"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="1">
         <v>43826</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" si="0"/>
-        <v>1310.5263157894738</v>
+        <v>3247.826086956522</v>
       </c>
       <c r="G22" s="13">
         <v>1176</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>0.64912280701754388</v>
+        <v>0.13043478260869557</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
@@ -3566,20 +2259,20 @@
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D23" s="25"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="1">
         <v>43827</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" si="0"/>
-        <v>1376.0526315789473</v>
+        <v>3410.217391304348</v>
       </c>
       <c r="G23" s="13">
         <v>1176</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>0.63157894736842102</v>
+        <v>8.6956521739130377E-2</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="2"/>
@@ -3587,20 +2280,20 @@
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D24" s="25"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="1">
         <v>43828</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" si="0"/>
-        <v>1441.578947368421</v>
+        <v>3572.608695652174</v>
       </c>
       <c r="G24" s="13">
         <v>1176</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>0.61403508771929827</v>
+        <v>4.3478260869565188E-2</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
@@ -3608,20 +2301,20 @@
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D25" s="25"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="1">
         <v>43829</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" si="0"/>
-        <v>1507.1052631578948</v>
+        <v>3735</v>
       </c>
       <c r="G25" s="13">
         <v>1187</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
-        <v>0.59649122807017541</v>
+        <v>0</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
@@ -3629,534 +2322,20 @@
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D26" s="25"/>
-      <c r="E26" s="1">
-        <v>43830</v>
-      </c>
-      <c r="F26" s="18">
-        <f t="shared" si="0"/>
-        <v>1572.6315789473683</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="6">
-        <f t="shared" si="1"/>
-        <v>0.57894736842105265</v>
-      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D27" s="25"/>
-      <c r="E27" s="1">
-        <v>43831</v>
-      </c>
-      <c r="F27" s="18">
-        <f t="shared" si="0"/>
-        <v>1638.1578947368421</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="6">
-        <f t="shared" si="1"/>
-        <v>0.56140350877192979</v>
-      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D28" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>43832</v>
-      </c>
-      <c r="F28" s="18">
-        <f t="shared" si="0"/>
-        <v>1703.6842105263158</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="6">
-        <f t="shared" si="1"/>
-        <v>0.54385964912280693</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D29" s="24"/>
-      <c r="E29" s="1">
-        <v>43833</v>
-      </c>
-      <c r="F29" s="18">
-        <f t="shared" si="0"/>
-        <v>1769.2105263157896</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="6">
-        <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
-      </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D30" s="24"/>
-      <c r="E30" s="1">
-        <v>43834</v>
-      </c>
-      <c r="F30" s="18">
-        <f t="shared" si="0"/>
-        <v>1834.7368421052631</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="6">
-        <f t="shared" si="1"/>
-        <v>0.50877192982456143</v>
-      </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D31" s="24"/>
-      <c r="E31" s="1">
-        <v>43835</v>
-      </c>
-      <c r="F31" s="18">
-        <f t="shared" si="0"/>
-        <v>1900.2631578947369</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="6">
-        <f t="shared" si="1"/>
-        <v>0.49122807017543857</v>
-      </c>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.45">
-      <c r="D32" s="25"/>
-      <c r="E32" s="1">
-        <v>43836</v>
-      </c>
-      <c r="F32" s="18">
-        <f t="shared" si="0"/>
-        <v>1965.7894736842106</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="6">
-        <f t="shared" si="1"/>
-        <v>0.47368421052631571</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D33" s="25"/>
-      <c r="E33" s="1">
-        <v>43837</v>
-      </c>
-      <c r="F33" s="18">
-        <f t="shared" si="0"/>
-        <v>2031.3157894736842</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="6">
-        <f t="shared" si="1"/>
-        <v>0.45614035087719296</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D34" s="25"/>
-      <c r="E34" s="1">
-        <v>43838</v>
-      </c>
-      <c r="F34" s="18">
-        <f t="shared" si="0"/>
-        <v>2096.8421052631579</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="6">
-        <f t="shared" si="1"/>
-        <v>0.43859649122807021</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D35" s="25"/>
-      <c r="E35" s="1">
-        <v>43839</v>
-      </c>
-      <c r="F35" s="18">
-        <f t="shared" ref="F35:F59" si="3">(Total_Pages)/COUNT($E$3:$E$59)*(E35-$E$3+1)</f>
-        <v>2162.3684210526317</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="6">
-        <f t="shared" ref="H35:H59" si="4">1-(F35/Total_Pages)</f>
-        <v>0.42105263157894735</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D36" s="25"/>
-      <c r="E36" s="1">
-        <v>43840</v>
-      </c>
-      <c r="F36" s="18">
-        <f t="shared" si="3"/>
-        <v>2227.8947368421054</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="6">
-        <f t="shared" si="4"/>
-        <v>0.40350877192982448</v>
-      </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D37" s="25"/>
-      <c r="E37" s="1">
-        <v>43841</v>
-      </c>
-      <c r="F37" s="18">
-        <f t="shared" si="3"/>
-        <v>2293.4210526315792</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="6">
-        <f t="shared" si="4"/>
-        <v>0.38596491228070173</v>
-      </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D38" s="25"/>
-      <c r="E38" s="1">
-        <v>43842</v>
-      </c>
-      <c r="F38" s="18">
-        <f t="shared" si="3"/>
-        <v>2358.9473684210525</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="6">
-        <f t="shared" si="4"/>
-        <v>0.36842105263157898</v>
-      </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D39" s="25"/>
-      <c r="E39" s="1">
-        <v>43843</v>
-      </c>
-      <c r="F39" s="18">
-        <f t="shared" si="3"/>
-        <v>2424.4736842105262</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="6">
-        <f t="shared" si="4"/>
-        <v>0.35087719298245612</v>
-      </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D40" s="25"/>
-      <c r="E40" s="1">
-        <v>43844</v>
-      </c>
-      <c r="F40" s="18">
-        <f t="shared" si="3"/>
-        <v>2490</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="6">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333337</v>
-      </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D41" s="25"/>
-      <c r="E41" s="1">
-        <v>43845</v>
-      </c>
-      <c r="F41" s="18">
-        <f t="shared" si="3"/>
-        <v>2555.5263157894738</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="6">
-        <f t="shared" si="4"/>
-        <v>0.31578947368421051</v>
-      </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D42" s="25"/>
-      <c r="E42" s="1">
-        <v>43846</v>
-      </c>
-      <c r="F42" s="18">
-        <f t="shared" si="3"/>
-        <v>2621.0526315789475</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="6">
-        <f t="shared" si="4"/>
-        <v>0.29824561403508765</v>
-      </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D43" s="25"/>
-      <c r="E43" s="1">
-        <v>43847</v>
-      </c>
-      <c r="F43" s="18">
-        <f t="shared" si="3"/>
-        <v>2686.5789473684213</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="6">
-        <f t="shared" si="4"/>
-        <v>0.2807017543859649</v>
-      </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D44" s="25"/>
-      <c r="E44" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F44" s="18">
-        <f t="shared" si="3"/>
-        <v>2752.1052631578946</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="6">
-        <f t="shared" si="4"/>
-        <v>0.26315789473684215</v>
-      </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D45" s="25"/>
-      <c r="E45" s="1">
-        <v>43849</v>
-      </c>
-      <c r="F45" s="18">
-        <f t="shared" si="3"/>
-        <v>2817.6315789473683</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="6">
-        <f t="shared" si="4"/>
-        <v>0.24561403508771928</v>
-      </c>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D46" s="25"/>
-      <c r="E46" s="1">
-        <v>43850</v>
-      </c>
-      <c r="F46" s="18">
-        <f t="shared" si="3"/>
-        <v>2883.1578947368421</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="6">
-        <f t="shared" si="4"/>
-        <v>0.22807017543859653</v>
-      </c>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D47" s="25"/>
-      <c r="E47" s="1">
-        <v>43851</v>
-      </c>
-      <c r="F47" s="18">
-        <f t="shared" si="3"/>
-        <v>2948.6842105263158</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="6">
-        <f t="shared" si="4"/>
-        <v>0.21052631578947367</v>
-      </c>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D48" s="25"/>
-      <c r="E48" s="1">
-        <v>43852</v>
-      </c>
-      <c r="F48" s="18">
-        <f t="shared" si="3"/>
-        <v>3014.2105263157896</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="6">
-        <f t="shared" si="4"/>
-        <v>0.19298245614035081</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D49" s="25"/>
-      <c r="E49" s="1">
-        <v>43853</v>
-      </c>
-      <c r="F49" s="18">
-        <f t="shared" si="3"/>
-        <v>3079.7368421052633</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="6">
-        <f t="shared" si="4"/>
-        <v>0.17543859649122806</v>
-      </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D50" s="25"/>
-      <c r="E50" s="1">
-        <v>43854</v>
-      </c>
-      <c r="F50" s="18">
-        <f t="shared" si="3"/>
-        <v>3145.2631578947367</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="6">
-        <f t="shared" si="4"/>
-        <v>0.15789473684210531</v>
-      </c>
-    </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D51" s="25"/>
-      <c r="E51" s="1">
-        <v>43855</v>
-      </c>
-      <c r="F51" s="18">
-        <f t="shared" si="3"/>
-        <v>3210.7894736842104</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="6">
-        <f t="shared" si="4"/>
-        <v>0.14035087719298245</v>
-      </c>
-    </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D52" s="25"/>
-      <c r="E52" s="1">
-        <v>43856</v>
-      </c>
-      <c r="F52" s="18">
-        <f t="shared" si="3"/>
-        <v>3276.3157894736842</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="6">
-        <f t="shared" si="4"/>
-        <v>0.1228070175438597</v>
-      </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D53" s="25"/>
-      <c r="E53" s="1">
-        <v>43857</v>
-      </c>
-      <c r="F53" s="18">
-        <f t="shared" si="3"/>
-        <v>3341.8421052631579</v>
-      </c>
-      <c r="G53" s="13"/>
-      <c r="H53" s="6">
-        <f t="shared" si="4"/>
-        <v>0.10526315789473684</v>
-      </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D54" s="25"/>
-      <c r="E54" s="1">
-        <v>43858</v>
-      </c>
-      <c r="F54" s="18">
-        <f t="shared" si="3"/>
-        <v>3407.3684210526317</v>
-      </c>
-      <c r="G54" s="13"/>
-      <c r="H54" s="6">
-        <f t="shared" si="4"/>
-        <v>8.7719298245613975E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D55" s="25"/>
-      <c r="E55" s="1">
-        <v>43859</v>
-      </c>
-      <c r="F55" s="18">
-        <f t="shared" si="3"/>
-        <v>3472.8947368421054</v>
-      </c>
-      <c r="G55" s="13"/>
-      <c r="H55" s="6">
-        <f t="shared" si="4"/>
-        <v>7.0175438596491224E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D56" s="25"/>
-      <c r="E56" s="1">
-        <v>43860</v>
-      </c>
-      <c r="F56" s="18">
-        <f t="shared" si="3"/>
-        <v>3538.4210526315792</v>
-      </c>
-      <c r="G56" s="13"/>
-      <c r="H56" s="6">
-        <f t="shared" si="4"/>
-        <v>5.2631578947368363E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D57" s="25"/>
-      <c r="E57" s="1">
-        <v>43861</v>
-      </c>
-      <c r="F57" s="18">
-        <f t="shared" si="3"/>
-        <v>3603.9473684210525</v>
-      </c>
-      <c r="G57" s="13"/>
-      <c r="H57" s="6">
-        <f t="shared" si="4"/>
-        <v>3.5087719298245612E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D58" s="25"/>
-      <c r="E58" s="1">
-        <v>43862</v>
-      </c>
-      <c r="F58" s="18">
-        <f t="shared" si="3"/>
-        <v>3669.4736842105262</v>
-      </c>
-      <c r="G58" s="13"/>
-      <c r="H58" s="6">
-        <f t="shared" si="4"/>
-        <v>1.7543859649122862E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D59" s="25"/>
-      <c r="E59" s="1">
-        <v>43863</v>
-      </c>
-      <c r="F59" s="18">
-        <f t="shared" si="3"/>
-        <v>3735</v>
-      </c>
-      <c r="G59" s="13"/>
-      <c r="H59" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="E62" s="7"/>
+      <c r="E28" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="5">
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D16:D22"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D59"/>
-    <mergeCell ref="D23:D27"/>
     <mergeCell ref="D3:D15"/>
   </mergeCells>
   <dataValidations count="2">
@@ -4194,7 +2373,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.73046875" bestFit="1" customWidth="1"/>
@@ -4202,22 +2381,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>154</v>
@@ -4225,7 +2404,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>98</v>
@@ -4233,7 +2412,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>652</v>
@@ -4241,7 +2420,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>347</v>
@@ -4249,7 +2428,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <f>GL_Pages-(GL_Start_Pages)+CL_Pages-(CL_Start_Pages)</f>
